--- a/biology/Médecine/Centre_hospitalier_universitaire_de_Reims/Centre_hospitalier_universitaire_de_Reims.xlsx
+++ b/biology/Médecine/Centre_hospitalier_universitaire_de_Reims/Centre_hospitalier_universitaire_de_Reims.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le centre hospitalier universitaire de Reims (ou CHU de Reims) est un centre hospitalier universitaire situé à Reims en France et qui dessert la région Champagne-Ardenne[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le centre hospitalier universitaire de Reims (ou CHU de Reims) est un centre hospitalier universitaire situé à Reims en France et qui dessert la région Champagne-Ardenne. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Chiffres clés[2]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nombre de lits : 2 382 pour un bassin de vie de 217 000 habitants et une région de 1 340 000 habitants. 7 466 employés.
 Personnel médical : 2 048 dont 667 médecins et assistants, 437 internes et 944 étudiants en médecine.
@@ -548,7 +562,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le centre hospitalier universitaire de Reims regroupe 10 établissements implantés sur plusieurs sites de la ville de Reims.
 </t>
@@ -579,7 +595,9 @@
           <t>Histoire des hôpitaux de Reims</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital de Reims est le continuateur des Hospices de Reims, ensemble de lieux d'accueil qui étaient liés à l'Eglise de Reims. Ils comprenaient, entre autres, l'hôtel dieu du chapitre cathédrale, deux léproseries localisées juste de l'autre côté de la Vesle, Ancien hôpital Saint-Marcoul. 
 Pendant la révolution française l'hôpital Saint-Marcou change de nom pour s'appeler l'Hôpital des scrofuleux.
@@ -615,7 +633,9 @@
           <t>Établissements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le site principal est situé dans le quartier Maison Blanche au sud de la ville et comprend :
 l'Hôpital Robert Debré,
@@ -654,9 +674,11 @@
           <t>Plateau technique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le CHU de Reims est doté d'un plateau technique moderne qui comprend[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le CHU de Reims est doté d'un plateau technique moderne qui comprend :
 2 scanners
 4 IRM
 un accès au TEP scan de l'institut Godinot (à côté du CHU)
@@ -708,7 +730,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CHU de Reims participe à la formation médicale, chirurgicale, pharmaceutique et odontologique de la région ainsi qu’à la recherche fondamentale en liaison avec les unités INSERM et CNRS. Le pôle formation du CHU de Reims comprend une école de sages-femmes et est lié à l'Université de Reims Champagne-Ardenne.
 </t>
